--- a/output/【河洛話注音】回鄉偶書．賀知章.xlsx
+++ b/output/【河洛話注音】回鄉偶書．賀知章.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/piau-im/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492EE0C-0B03-E34C-9691-97295E3349CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E7F37-62E6-4519-AFA7-B43D8D953CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1560" windowWidth="28540" windowHeight="17320" xr2:uid="{90D766D0-C71D-704A-9E14-A9988EFD61D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{90D766D0-C71D-704A-9E14-A9988EFD61D8}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="9" r:id="rId1"/>
@@ -22,8 +22,15 @@
     <sheet name="字庫表" sheetId="3" r:id="rId7"/>
     <sheet name="缺字表" sheetId="2" r:id="rId8"/>
     <sheet name="工作表1" sheetId="1" r:id="rId9"/>
+    <sheet name="env" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="FILE_NAME">env!$C$3</definedName>
+    <definedName name="IMAGE_URL">env!$C$5</definedName>
+    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="TITLE">env!$C$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="256">
   <si>
     <t>回鄉偶書</t>
   </si>
@@ -59,10 +66,6 @@
   </si>
   <si>
     <t>笑問客從何處來。</t>
-  </si>
-  <si>
-    <t>賀知章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>回</t>
@@ -180,24 +183,9 @@
     <t>ue</t>
   </si>
   <si>
-    <t>hiang1</t>
-  </si>
-  <si>
-    <t>iang</t>
-  </si>
-  <si>
-    <t>hiang3</t>
-  </si>
-  <si>
-    <t>gonn2</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>onn</t>
-  </si>
-  <si>
     <t>si1</t>
   </si>
   <si>
@@ -222,18 +210,9 @@
     <t>l</t>
   </si>
   <si>
-    <t>li7</t>
-  </si>
-  <si>
-    <t>kee1</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
     <t>lo2</t>
   </si>
   <si>
@@ -249,18 +228,6 @@
     <t>ai</t>
   </si>
   <si>
-    <t>thai3</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>qim1</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>im</t>
   </si>
   <si>
@@ -276,21 +243,9 @@
     <t>kai2</t>
   </si>
   <si>
-    <t>pin3</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>bonn5</t>
-  </si>
-  <si>
-    <t>sue1</t>
-  </si>
-  <si>
     <t>ji5</t>
   </si>
   <si>
@@ -303,21 +258,12 @@
     <t>ong</t>
   </si>
   <si>
-    <t>siang1</t>
-  </si>
-  <si>
-    <t>siang3</t>
-  </si>
-  <si>
     <t>kian3</t>
   </si>
   <si>
     <t>ian</t>
   </si>
   <si>
-    <t>hian7</t>
-  </si>
-  <si>
     <t>put4</t>
   </si>
   <si>
@@ -327,30 +273,9 @@
     <t>hiu1</t>
   </si>
   <si>
-    <t>iu</t>
-  </si>
-  <si>
-    <t>hoo2</t>
-  </si>
-  <si>
     <t>oo</t>
   </si>
   <si>
-    <t>hu1</t>
-  </si>
-  <si>
-    <t>sit4</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>tshiau3</t>
-  </si>
-  <si>
-    <t>tsh</t>
-  </si>
-  <si>
     <t>bun7</t>
   </si>
   <si>
@@ -366,57 +291,21 @@
     <t>ik</t>
   </si>
   <si>
-    <t>tshiong1</t>
-  </si>
-  <si>
     <t>iong</t>
   </si>
   <si>
-    <t>tsiong5</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>tsiong7</t>
-  </si>
-  <si>
-    <t>tshiong3</t>
-  </si>
-  <si>
     <t>ho5</t>
   </si>
   <si>
     <t>ho7</t>
   </si>
   <si>
-    <t>tshi2</t>
-  </si>
-  <si>
-    <t>tshi3</t>
-  </si>
-  <si>
-    <t>tshu3</t>
-  </si>
-  <si>
-    <t>tshu2</t>
-  </si>
-  <si>
     <t>lai5</t>
   </si>
   <si>
-    <t>lai7</t>
-  </si>
-  <si>
     <t>ti1</t>
   </si>
   <si>
-    <t>ti3</t>
-  </si>
-  <si>
-    <t>tsiang1</t>
-  </si>
-  <si>
     <t>&lt;div class='fifteen_yin'&gt;&lt;p&gt;</t>
   </si>
   <si>
@@ -838,13 +727,111 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;章&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zīang&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>hiong1</t>
+  </si>
+  <si>
+    <t>goo2</t>
+  </si>
+  <si>
+    <t>goo7</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Øim1</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>pai3</t>
+  </si>
+  <si>
+    <t>bo5</t>
+  </si>
+  <si>
+    <t>chui1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>siong1</t>
+  </si>
+  <si>
+    <t>piu2</t>
+  </si>
+  <si>
+    <t>hiu3</t>
+  </si>
+  <si>
+    <t>ci3</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ciong5</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>ciong1</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT_FILE_PATH</t>
+  </si>
+  <si>
+    <t>d:\work\Piau-Im\output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>Piau-Tsu-Im.xlsx</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>IMAGE_URL</t>
+  </si>
+  <si>
+    <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
+  </si>
+  <si>
+    <t>回鄉偶書</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐朝：賀知章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -867,18 +854,31 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Heiti TC Light"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -895,18 +895,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,9 +932,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -966,7 +972,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1072,7 +1078,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1214,7 +1220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,255 +1230,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2728CAE-8993-9E48-90DD-8CD8F3FE6868}">
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBFE8AA-320F-4C7A-B1C3-41E8587CB879}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.90625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1489,251 +1557,251 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1750,251 +1818,251 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2011,251 +2079,251 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2272,251 +2340,251 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2527,108 +2595,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4CCE26-893C-F441-8A68-7BA732F9A56C}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
       <c r="E1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="46">
-      <c r="A5" s="3" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="46">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2636,96 +2710,99 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2733,218 +2810,239 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="46">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="46">
-      <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2952,22 +3050,19 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2975,22 +3070,19 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -2998,28 +3090,19 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3027,135 +3110,129 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="46">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37">
-        <v>13</v>
-      </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
-      <c r="I37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -3163,137 +3240,125 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <v>18</v>
-      </c>
-      <c r="I39">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
         <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="46">
-      <c r="A42" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="46">
-      <c r="A43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="51">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="51">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="46">
-      <c r="A47" s="3" t="s">
-        <v>10</v>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="51">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3304,493 +3369,588 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300EFC0C-250F-1B46-8245-D70CB1CB7EE0}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>13979</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>19592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>12596</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>18320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>14752</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>16164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>16456</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>9973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>18569</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>6250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>18473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1472</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1009</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>3092</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>7127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>18942</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>17916</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>6653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>17930</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>7339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>25349</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>8638</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="G7">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="B22">
+        <v>13833</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>29</v>
       </c>
-      <c r="G8">
-        <v>10212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B23">
+        <v>21332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>7127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>18942</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>15253</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="D26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>24088</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="G9">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>8804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>7339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
+      <c r="D27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>555</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>645</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>14714</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>6522</v>
+      </c>
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
-        <v>5411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>12961</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>6023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>5859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>10647</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>38</v>
-      </c>
-      <c r="G16">
-        <v>6503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>39</v>
       </c>
-      <c r="G17">
-        <v>9661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>39</v>
-      </c>
-      <c r="G18">
-        <v>10645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>39</v>
-      </c>
-      <c r="G19">
-        <v>10646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>40</v>
-      </c>
-      <c r="G20">
-        <v>6731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>45</v>
-      </c>
-      <c r="G21">
-        <v>9576</v>
+      <c r="B34">
+        <v>15614</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3814,45 +3974,48 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC9205F-4800-2740-A238-E1D305149B00}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/【河洛話注音】回鄉偶書．賀知章.xlsx
+++ b/output/【河洛話注音】回鄉偶書．賀知章.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2487A-262B-45ED-883C-B8E64C039F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED179B-35D6-43C0-9073-E1C890F4F020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{90D766D0-C71D-704A-9E14-A9988EFD61D8}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{90D766D0-C71D-704A-9E14-A9988EFD61D8}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="9" r:id="rId1"/>
